--- a/tests/test_novostroy_m.xlsx
+++ b/tests/test_novostroy_m.xlsx
@@ -8,12 +8,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr refMode="R1C1" iterateCount="0" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Дата</t>
   </si>
@@ -48,7 +48,7 @@
     <t>09:21:37</t>
   </si>
   <si>
-    <t xml:space="preserve">Название 1</t>
+    <t xml:space="preserve">РК 1 / Novostroy-m / РК по CPA</t>
   </si>
   <si>
     <t>00:00</t>
@@ -66,28 +66,70 @@
     <t>15:27:26</t>
   </si>
   <si>
-    <t xml:space="preserve">Название 2</t>
-  </si>
-  <si>
     <t>15:27:40</t>
   </si>
   <si>
-    <t xml:space="preserve">Название 3</t>
-  </si>
-  <si>
     <t>20:16:18</t>
   </si>
   <si>
-    <t xml:space="preserve">Название 4</t>
-  </si>
-  <si>
     <t>21-05-2024</t>
   </si>
   <si>
     <t>14:07:33</t>
   </si>
   <si>
-    <t xml:space="preserve">Название 5</t>
+    <t>15:15:23</t>
+  </si>
+  <si>
+    <t>15:27:36</t>
+  </si>
+  <si>
+    <t>00:04</t>
+  </si>
+  <si>
+    <t>15:28:26</t>
+  </si>
+  <si>
+    <t>00:25</t>
+  </si>
+  <si>
+    <t>22-05-2024</t>
+  </si>
+  <si>
+    <t>14:17:28</t>
+  </si>
+  <si>
+    <t>05:09</t>
+  </si>
+  <si>
+    <t>Целевой</t>
+  </si>
+  <si>
+    <t>Уникально-целевой</t>
+  </si>
+  <si>
+    <t>24-05-2024</t>
+  </si>
+  <si>
+    <t>12:56:25</t>
+  </si>
+  <si>
+    <t>00:03</t>
+  </si>
+  <si>
+    <t>26-05-2024</t>
+  </si>
+  <si>
+    <t>16:05:52</t>
+  </si>
+  <si>
+    <t>00:41</t>
+  </si>
+  <si>
+    <t>19:16:48</t>
+  </si>
+  <si>
+    <t>00:18</t>
   </si>
 </sst>
 </file>
@@ -97,13 +139,12 @@
   <fonts count="2">
     <font>
       <sz val="12.000000"/>
-      <color indexed="64"/>
+      <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
       <sz val="12.000000"/>
-      <color indexed="64"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -127,13 +168,16 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -429,49 +473,49 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface="Arial"/>
         <a:cs typeface="Arial"/>
       </a:majorFont>
@@ -481,7 +525,7 @@
         <a:cs typeface="Arial"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -490,76 +534,67 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:ln w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -596,38 +631,11 @@
           <a:schemeClr val="phClr"/>
         </a:solidFill>
         <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
+          <a:srgbClr val="000000"/>
         </a:solidFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:srgbClr val="000000"/>
+        </a:solidFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
@@ -644,10 +652,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col bestFit="1" min="1" max="1" width="9.875"/>
-    <col bestFit="1" min="2" max="2" width="7.625"/>
+    <col customWidth="1" min="1" max="1" width="13.75390625"/>
     <col bestFit="1" min="3" max="3" width="41.00390625"/>
-    <col bestFit="1" min="4" max="4" width="9.625"/>
+    <col bestFit="1" min="4" max="4" width="11.625"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -690,7 +697,7 @@
         <v>11</v>
       </c>
       <c r="D2">
-        <v>123456789</v>
+        <v>89999999999</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -710,10 +717,10 @@
         <v>16</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="2">
-        <v>123456789</v>
+        <v>11</v>
+      </c>
+      <c r="D3" s="3">
+        <v>89999999999</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -730,13 +737,13 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="2">
-        <v>123456789</v>
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>89999999999</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
@@ -753,13 +760,13 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="2">
-        <v>123456789</v>
+        <v>11</v>
+      </c>
+      <c r="D5" s="3">
+        <v>89999999999</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
@@ -773,16 +780,16 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="2">
-        <v>123456789</v>
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <v>89999999999</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
@@ -794,16 +801,176 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" ht="16.5"/>
-    <row r="8" ht="16.5"/>
-    <row r="9" ht="16.5"/>
-    <row r="10" ht="16.5"/>
-    <row r="11" ht="16.5"/>
-    <row r="12" ht="16.5"/>
-    <row r="13" ht="16.5"/>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="3">
+        <v>89999999999</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8">
+        <v>89999999999</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="3">
+        <v>89999999999</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10">
+        <v>89999999999</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10">
+        <v>999999</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="3">
+        <v>89999999999</v>
+      </c>
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>89999999999</v>
+      </c>
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="3">
+        <v>89999999999</v>
+      </c>
+      <c r="E13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
